--- a/choice_divergence1_unsmooth.xlsx
+++ b/choice_divergence1_unsmooth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\model\data_simulation\neuralactivityinputtask\RNN42AFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E346FBEF-5DA1-4400-8DF0-F2DBE24E82DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEF4249-A975-4919-A861-B247885C6AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="1155" windowWidth="14910" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1669,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="L402" sqref="L402"/>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="P389" sqref="P389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1746,12 +1768,12 @@
         <v>520</v>
       </c>
       <c r="J2">
-        <f>F2-G2</f>
-        <v>-880</v>
+        <f>-(F2-G2)</f>
+        <v>880</v>
       </c>
       <c r="K2">
-        <f>H2-I2</f>
-        <v>-700</v>
+        <f>-(H2-I2)</f>
+        <v>700</v>
       </c>
       <c r="L2">
         <f>I2-G2</f>
@@ -1791,12 +1813,12 @@
         <v>420</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="4">F3-G3</f>
-        <v>200</v>
+        <f t="shared" ref="J3:J66" si="4">-(F3-G3)</f>
+        <v>-200</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="5">H3-I3</f>
-        <v>-300</v>
+        <f t="shared" ref="K3:K66" si="5">-(H3-I3)</f>
+        <v>300</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" si="6">I3-G3</f>
@@ -1837,11 +1859,11 @@
       </c>
       <c r="J4">
         <f t="shared" si="4"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="K4">
         <f t="shared" si="5"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L4">
         <f t="shared" si="6"/>
@@ -1882,11 +1904,11 @@
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>640</v>
+        <v>-640</v>
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
-        <v>-600</v>
+        <v>600</v>
       </c>
       <c r="L5">
         <f t="shared" si="6"/>
@@ -1927,11 +1949,11 @@
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>700</v>
+        <v>-700</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
-        <v>-740</v>
+        <v>740</v>
       </c>
       <c r="L6">
         <f t="shared" si="6"/>
@@ -2080,11 +2102,11 @@
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>-520</v>
+        <v>520</v>
       </c>
       <c r="L10">
         <f t="shared" si="6"/>
@@ -2125,11 +2147,11 @@
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
-        <v>-580</v>
+        <v>580</v>
       </c>
       <c r="L11">
         <f t="shared" si="6"/>
@@ -2170,11 +2192,11 @@
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>680</v>
+        <v>-680</v>
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L12">
         <f t="shared" si="6"/>
@@ -2215,11 +2237,11 @@
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
-        <v>-560</v>
+        <v>560</v>
       </c>
       <c r="L13">
         <f t="shared" si="6"/>
@@ -2260,11 +2282,11 @@
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
-        <v>-360</v>
+        <v>360</v>
       </c>
       <c r="L14">
         <f t="shared" si="6"/>
@@ -2305,11 +2327,11 @@
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L15">
         <f t="shared" si="6"/>
@@ -2350,11 +2372,11 @@
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
-        <v>-360</v>
+        <v>360</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
@@ -2395,11 +2417,11 @@
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
-        <v>-540</v>
+        <v>540</v>
       </c>
       <c r="L17">
         <f t="shared" si="6"/>
@@ -2440,11 +2462,11 @@
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L18">
         <f t="shared" si="6"/>
@@ -2485,11 +2507,11 @@
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L19">
         <f t="shared" si="6"/>
@@ -2530,11 +2552,11 @@
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="L20">
         <f t="shared" si="6"/>
@@ -2575,11 +2597,11 @@
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L21">
         <f t="shared" si="6"/>
@@ -2620,11 +2642,11 @@
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>280</v>
+        <v>-280</v>
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L22">
         <f t="shared" si="6"/>
@@ -2665,11 +2687,11 @@
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="K23">
         <f t="shared" si="5"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L23">
         <f t="shared" si="6"/>
@@ -2710,11 +2732,11 @@
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L24">
         <f t="shared" si="6"/>
@@ -2755,11 +2777,11 @@
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L25">
         <f t="shared" si="6"/>
@@ -2800,11 +2822,11 @@
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L26">
         <f t="shared" si="6"/>
@@ -2845,11 +2867,11 @@
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L27">
         <f t="shared" si="6"/>
@@ -2890,11 +2912,11 @@
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="K28">
         <f t="shared" si="5"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L28">
         <f t="shared" si="6"/>
@@ -2935,11 +2957,11 @@
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="K29">
         <f t="shared" si="5"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L29">
         <f t="shared" si="6"/>
@@ -2980,11 +3002,11 @@
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="K30">
         <f t="shared" si="5"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="L30">
         <f t="shared" si="6"/>
@@ -3025,11 +3047,11 @@
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="K31">
         <f t="shared" si="5"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="L31">
         <f t="shared" si="6"/>
@@ -3071,7 +3093,7 @@
       </c>
       <c r="K32">
         <f t="shared" si="5"/>
-        <v>-360</v>
+        <v>360</v>
       </c>
       <c r="L32">
         <f t="shared" si="6"/>
@@ -3112,11 +3134,11 @@
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="K33">
         <f t="shared" si="5"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L33">
         <f t="shared" si="6"/>
@@ -3157,11 +3179,11 @@
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="K34">
         <f t="shared" si="5"/>
-        <v>-560</v>
+        <v>560</v>
       </c>
       <c r="L34">
         <f t="shared" si="6"/>
@@ -3202,11 +3224,11 @@
       </c>
       <c r="J35">
         <f t="shared" si="4"/>
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="K35">
         <f t="shared" si="5"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L35">
         <f t="shared" si="6"/>
@@ -3247,11 +3269,11 @@
       </c>
       <c r="J36">
         <f t="shared" si="4"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="K36">
         <f t="shared" si="5"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="L36">
         <f t="shared" si="6"/>
@@ -3292,11 +3314,11 @@
       </c>
       <c r="J37">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K37">
         <f t="shared" si="5"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L37">
         <f t="shared" si="6"/>
@@ -3337,11 +3359,11 @@
       </c>
       <c r="J38">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="K38">
         <f t="shared" si="5"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L38">
         <f t="shared" si="6"/>
@@ -3382,11 +3404,11 @@
       </c>
       <c r="J39">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="K39">
         <f t="shared" si="5"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L39">
         <f t="shared" si="6"/>
@@ -3427,11 +3449,11 @@
       </c>
       <c r="J40">
         <f t="shared" si="4"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="K40">
         <f t="shared" si="5"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L40">
         <f t="shared" si="6"/>
@@ -3472,11 +3494,11 @@
       </c>
       <c r="J41">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="K41">
         <f t="shared" si="5"/>
-        <v>-360</v>
+        <v>360</v>
       </c>
       <c r="L41">
         <f t="shared" si="6"/>
@@ -3517,11 +3539,11 @@
       </c>
       <c r="J42">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="K42">
         <f t="shared" si="5"/>
-        <v>-480</v>
+        <v>480</v>
       </c>
       <c r="L42">
         <f t="shared" si="6"/>
@@ -3562,11 +3584,11 @@
       </c>
       <c r="J43">
         <f t="shared" si="4"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="K43">
         <f t="shared" si="5"/>
-        <v>-480</v>
+        <v>480</v>
       </c>
       <c r="L43">
         <f t="shared" si="6"/>
@@ -3607,11 +3629,11 @@
       </c>
       <c r="J44">
         <f t="shared" si="4"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="K44">
         <f t="shared" si="5"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L44">
         <f t="shared" si="6"/>
@@ -3652,11 +3674,11 @@
       </c>
       <c r="J45">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="K45">
         <f t="shared" si="5"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L45">
         <f t="shared" si="6"/>
@@ -3697,11 +3719,11 @@
       </c>
       <c r="J46">
         <f t="shared" si="4"/>
-        <v>280</v>
+        <v>-280</v>
       </c>
       <c r="K46">
         <f t="shared" si="5"/>
-        <v>-360</v>
+        <v>360</v>
       </c>
       <c r="L46">
         <f t="shared" si="6"/>
@@ -3742,11 +3764,11 @@
       </c>
       <c r="J47">
         <f t="shared" si="4"/>
-        <v>-420</v>
+        <v>420</v>
       </c>
       <c r="K47">
         <f t="shared" si="5"/>
-        <v>-520</v>
+        <v>520</v>
       </c>
       <c r="L47">
         <f t="shared" si="6"/>
@@ -3787,11 +3809,11 @@
       </c>
       <c r="J48">
         <f t="shared" si="4"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="K48">
         <f t="shared" si="5"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L48">
         <f t="shared" si="6"/>
@@ -3832,11 +3854,11 @@
       </c>
       <c r="J49">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="K49">
         <f t="shared" si="5"/>
-        <v>-380</v>
+        <v>380</v>
       </c>
       <c r="L49">
         <f t="shared" si="6"/>
@@ -3877,11 +3899,11 @@
       </c>
       <c r="J50">
         <f t="shared" si="4"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="K50">
         <f t="shared" si="5"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="L50">
         <f t="shared" si="6"/>
@@ -3922,11 +3944,11 @@
       </c>
       <c r="J51">
         <f t="shared" si="4"/>
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="K51">
         <f t="shared" si="5"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L51">
         <f t="shared" si="6"/>
@@ -3967,11 +3989,11 @@
       </c>
       <c r="J52">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K52">
         <f t="shared" si="5"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L52">
         <f t="shared" si="6"/>
@@ -4012,11 +4034,11 @@
       </c>
       <c r="J53">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="K53">
         <f t="shared" si="5"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L53">
         <f t="shared" si="6"/>
@@ -4057,11 +4079,11 @@
       </c>
       <c r="J54">
         <f t="shared" si="4"/>
-        <v>-440</v>
+        <v>440</v>
       </c>
       <c r="K54">
         <f t="shared" si="5"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L54">
         <f t="shared" si="6"/>
@@ -4102,11 +4124,11 @@
       </c>
       <c r="J55">
         <f t="shared" si="4"/>
-        <v>220</v>
+        <v>-220</v>
       </c>
       <c r="K55">
         <f t="shared" si="5"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L55">
         <f t="shared" si="6"/>
@@ -4147,11 +4169,11 @@
       </c>
       <c r="J56">
         <f t="shared" si="4"/>
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="K56">
         <f t="shared" si="5"/>
-        <v>-380</v>
+        <v>380</v>
       </c>
       <c r="L56">
         <f t="shared" si="6"/>
@@ -4193,7 +4215,7 @@
       </c>
       <c r="K57">
         <f t="shared" si="5"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L57">
         <f t="shared" si="6"/>
@@ -4234,11 +4256,11 @@
       </c>
       <c r="J58">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="K58">
         <f t="shared" si="5"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L58">
         <f t="shared" si="6"/>
@@ -4279,11 +4301,11 @@
       </c>
       <c r="J59">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="K59">
         <f t="shared" si="5"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L59">
         <f t="shared" si="6"/>
@@ -4324,11 +4346,11 @@
       </c>
       <c r="J60">
         <f t="shared" si="4"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="K60">
         <f t="shared" si="5"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L60">
         <f t="shared" si="6"/>
@@ -4369,11 +4391,11 @@
       </c>
       <c r="J61">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="K61">
         <f t="shared" si="5"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="L61">
         <f t="shared" si="6"/>
@@ -4414,11 +4436,11 @@
       </c>
       <c r="J62">
         <f t="shared" si="4"/>
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="K62">
         <f t="shared" si="5"/>
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="L62">
         <f t="shared" si="6"/>
@@ -4463,7 +4485,7 @@
       </c>
       <c r="K63">
         <f t="shared" si="5"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L63">
         <f t="shared" si="6"/>
@@ -4504,11 +4526,11 @@
       </c>
       <c r="J64">
         <f t="shared" si="4"/>
-        <v>520</v>
+        <v>-520</v>
       </c>
       <c r="K64">
         <f t="shared" si="5"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L64">
         <f t="shared" si="6"/>
@@ -4553,7 +4575,7 @@
       </c>
       <c r="K65">
         <f t="shared" si="5"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L65">
         <f t="shared" si="6"/>
@@ -4594,11 +4616,11 @@
       </c>
       <c r="J66">
         <f t="shared" si="4"/>
-        <v>560</v>
+        <v>-560</v>
       </c>
       <c r="K66">
         <f t="shared" si="5"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L66">
         <f t="shared" si="6"/>
@@ -4638,12 +4660,12 @@
         <v>300</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="11">F67-G67</f>
+        <f t="shared" ref="J67:J130" si="11">-(F67-G67)</f>
+        <v>-180</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K130" si="12">-(H67-I67)</f>
         <v>180</v>
-      </c>
-      <c r="K67">
-        <f t="shared" ref="K67:K130" si="12">H67-I67</f>
-        <v>-180</v>
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L130" si="13">I67-G67</f>
@@ -4684,11 +4706,11 @@
       </c>
       <c r="J68">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="K68">
         <f t="shared" si="12"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L68">
         <f t="shared" si="13"/>
@@ -4729,11 +4751,11 @@
       </c>
       <c r="J69">
         <f t="shared" si="11"/>
-        <v>620</v>
+        <v>-620</v>
       </c>
       <c r="K69">
         <f t="shared" si="12"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L69">
         <f t="shared" si="13"/>
@@ -4774,11 +4796,11 @@
       </c>
       <c r="J70">
         <f t="shared" si="11"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="K70">
         <f t="shared" si="12"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L70">
         <f t="shared" si="13"/>
@@ -4820,7 +4842,7 @@
       </c>
       <c r="K71">
         <f t="shared" si="12"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L71">
         <f t="shared" si="13"/>
@@ -4861,11 +4883,11 @@
       </c>
       <c r="J72">
         <f t="shared" si="11"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="K72">
         <f t="shared" si="12"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L72">
         <f t="shared" si="13"/>
@@ -4906,11 +4928,11 @@
       </c>
       <c r="J73">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="K73">
         <f t="shared" si="12"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L73">
         <f t="shared" si="13"/>
@@ -4955,7 +4977,7 @@
       </c>
       <c r="K74">
         <f t="shared" si="12"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L74">
         <f t="shared" si="13"/>
@@ -4996,11 +5018,11 @@
       </c>
       <c r="J75">
         <f t="shared" si="11"/>
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="K75">
         <f t="shared" si="12"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L75">
         <f t="shared" si="13"/>
@@ -5041,11 +5063,11 @@
       </c>
       <c r="J76">
         <f t="shared" si="11"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="K76">
         <f t="shared" si="12"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L76">
         <f t="shared" si="13"/>
@@ -5086,11 +5108,11 @@
       </c>
       <c r="J77">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="K77">
         <f t="shared" si="12"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L77">
         <f t="shared" si="13"/>
@@ -5131,11 +5153,11 @@
       </c>
       <c r="J78">
         <f t="shared" si="11"/>
-        <v>540</v>
+        <v>-540</v>
       </c>
       <c r="K78">
         <f t="shared" si="12"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L78">
         <f t="shared" si="13"/>
@@ -5176,11 +5198,11 @@
       </c>
       <c r="J79">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="K79">
         <f t="shared" si="12"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L79">
         <f t="shared" si="13"/>
@@ -5221,11 +5243,11 @@
       </c>
       <c r="J80">
         <f t="shared" si="11"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="K80">
         <f t="shared" si="12"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L80">
         <f t="shared" si="13"/>
@@ -5266,11 +5288,11 @@
       </c>
       <c r="J81">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="K81">
         <f t="shared" si="12"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L81">
         <f t="shared" si="13"/>
@@ -5311,11 +5333,11 @@
       </c>
       <c r="J82">
         <f t="shared" si="11"/>
-        <v>400</v>
+        <v>-400</v>
       </c>
       <c r="K82">
         <f t="shared" si="12"/>
-        <v>-680</v>
+        <v>680</v>
       </c>
       <c r="L82">
         <f t="shared" si="13"/>
@@ -5356,11 +5378,11 @@
       </c>
       <c r="J83">
         <f t="shared" si="11"/>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="K83">
         <f t="shared" si="12"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L83">
         <f t="shared" si="13"/>
@@ -5401,11 +5423,11 @@
       </c>
       <c r="J84">
         <f t="shared" si="11"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="K84">
         <f t="shared" si="12"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L84">
         <f t="shared" si="13"/>
@@ -5446,11 +5468,11 @@
       </c>
       <c r="J85">
         <f t="shared" si="11"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="K85">
         <f t="shared" si="12"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L85">
         <f t="shared" si="13"/>
@@ -5491,11 +5513,11 @@
       </c>
       <c r="J86">
         <f t="shared" si="11"/>
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="K86">
         <f t="shared" si="12"/>
-        <v>-600</v>
+        <v>600</v>
       </c>
       <c r="L86">
         <f t="shared" si="13"/>
@@ -5536,11 +5558,11 @@
       </c>
       <c r="J87">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="K87">
         <f t="shared" si="12"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L87">
         <f t="shared" si="13"/>
@@ -5581,11 +5603,11 @@
       </c>
       <c r="J88">
         <f t="shared" si="11"/>
-        <v>-380</v>
+        <v>380</v>
       </c>
       <c r="K88">
         <f t="shared" si="12"/>
-        <v>-440</v>
+        <v>440</v>
       </c>
       <c r="L88">
         <f t="shared" si="13"/>
@@ -5626,11 +5648,11 @@
       </c>
       <c r="J89">
         <f t="shared" si="11"/>
-        <v>320</v>
+        <v>-320</v>
       </c>
       <c r="K89">
         <f t="shared" si="12"/>
-        <v>-380</v>
+        <v>380</v>
       </c>
       <c r="L89">
         <f t="shared" si="13"/>
@@ -5671,11 +5693,11 @@
       </c>
       <c r="J90">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="K90">
         <f t="shared" si="12"/>
-        <v>-440</v>
+        <v>440</v>
       </c>
       <c r="L90">
         <f t="shared" si="13"/>
@@ -5716,11 +5738,11 @@
       </c>
       <c r="J91">
         <f t="shared" si="11"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="K91">
         <f t="shared" si="12"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="L91">
         <f t="shared" si="13"/>
@@ -5761,11 +5783,11 @@
       </c>
       <c r="J92">
         <f t="shared" si="11"/>
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="K92">
         <f t="shared" si="12"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L92">
         <f t="shared" si="13"/>
@@ -5806,11 +5828,11 @@
       </c>
       <c r="J93">
         <f t="shared" si="11"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="K93">
         <f t="shared" si="12"/>
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="L93">
         <f t="shared" si="13"/>
@@ -5851,11 +5873,11 @@
       </c>
       <c r="J94">
         <f t="shared" si="11"/>
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="K94">
         <f t="shared" si="12"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L94">
         <f t="shared" si="13"/>
@@ -5896,11 +5918,11 @@
       </c>
       <c r="J95">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="K95">
         <f t="shared" si="12"/>
-        <v>-620</v>
+        <v>620</v>
       </c>
       <c r="L95">
         <f t="shared" si="13"/>
@@ -5941,11 +5963,11 @@
       </c>
       <c r="J96">
         <f t="shared" si="11"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="K96">
         <f t="shared" si="12"/>
-        <v>-440</v>
+        <v>440</v>
       </c>
       <c r="L96">
         <f t="shared" si="13"/>
@@ -5987,7 +6009,7 @@
       </c>
       <c r="K97">
         <f t="shared" si="12"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="L97">
         <f t="shared" si="13"/>
@@ -6028,11 +6050,11 @@
       </c>
       <c r="J98">
         <f t="shared" si="11"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="K98">
         <f t="shared" si="12"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L98">
         <f t="shared" si="13"/>
@@ -6073,11 +6095,11 @@
       </c>
       <c r="J99">
         <f t="shared" si="11"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K99">
         <f t="shared" si="12"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L99">
         <f t="shared" si="13"/>
@@ -6118,11 +6140,11 @@
       </c>
       <c r="J100">
         <f t="shared" si="11"/>
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K100">
         <f t="shared" si="12"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L100">
         <f t="shared" si="13"/>
@@ -6163,11 +6185,11 @@
       </c>
       <c r="J101">
         <f t="shared" si="11"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K101">
         <f t="shared" si="12"/>
-        <v>-360</v>
+        <v>360</v>
       </c>
       <c r="L101">
         <f t="shared" si="13"/>
@@ -6208,11 +6230,11 @@
       </c>
       <c r="J102">
         <f t="shared" si="11"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="K102">
         <f t="shared" si="12"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L102">
         <f t="shared" si="13"/>
@@ -6253,11 +6275,11 @@
       </c>
       <c r="J103">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="K103">
         <f t="shared" si="12"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L103">
         <f t="shared" si="13"/>
@@ -6298,11 +6320,11 @@
       </c>
       <c r="J104">
         <f t="shared" si="11"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="K104">
         <f t="shared" si="12"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="L104">
         <f t="shared" si="13"/>
@@ -6343,11 +6365,11 @@
       </c>
       <c r="J105">
         <f t="shared" si="11"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="K105">
         <f t="shared" si="12"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L105">
         <f t="shared" si="13"/>
@@ -6388,11 +6410,11 @@
       </c>
       <c r="J106">
         <f t="shared" si="11"/>
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="K106">
         <f t="shared" si="12"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L106">
         <f t="shared" si="13"/>
@@ -6433,11 +6455,11 @@
       </c>
       <c r="J107">
         <f t="shared" si="11"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="K107">
         <f t="shared" si="12"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L107">
         <f t="shared" si="13"/>
@@ -6478,11 +6500,11 @@
       </c>
       <c r="J108">
         <f t="shared" si="11"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="K108">
         <f t="shared" si="12"/>
-        <v>-360</v>
+        <v>360</v>
       </c>
       <c r="L108">
         <f t="shared" si="13"/>
@@ -6523,11 +6545,11 @@
       </c>
       <c r="J109">
         <f t="shared" si="11"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="K109">
         <f t="shared" si="12"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L109">
         <f t="shared" si="13"/>
@@ -6568,11 +6590,11 @@
       </c>
       <c r="J110">
         <f t="shared" si="11"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="K110">
         <f t="shared" si="12"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L110">
         <f t="shared" si="13"/>
@@ -6613,11 +6635,11 @@
       </c>
       <c r="J111">
         <f t="shared" si="11"/>
-        <v>140</v>
+        <v>-140</v>
       </c>
       <c r="K111">
         <f t="shared" si="12"/>
-        <v>-380</v>
+        <v>380</v>
       </c>
       <c r="L111">
         <f t="shared" si="13"/>
@@ -6658,11 +6680,11 @@
       </c>
       <c r="J112">
         <f t="shared" si="11"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="K112">
         <f t="shared" si="12"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="L112">
         <f t="shared" si="13"/>
@@ -6703,11 +6725,11 @@
       </c>
       <c r="J113">
         <f t="shared" si="11"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="K113">
         <f t="shared" si="12"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L113">
         <f t="shared" si="13"/>
@@ -6748,11 +6770,11 @@
       </c>
       <c r="J114">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="K114">
         <f t="shared" si="12"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L114">
         <f t="shared" si="13"/>
@@ -6793,11 +6815,11 @@
       </c>
       <c r="J115">
         <f t="shared" si="11"/>
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K115">
         <f t="shared" si="12"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L115">
         <f t="shared" si="13"/>
@@ -6838,11 +6860,11 @@
       </c>
       <c r="J116">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="K116">
         <f t="shared" si="12"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L116">
         <f t="shared" si="13"/>
@@ -6883,11 +6905,11 @@
       </c>
       <c r="J117">
         <f t="shared" si="11"/>
-        <v>280</v>
+        <v>-280</v>
       </c>
       <c r="K117">
         <f t="shared" si="12"/>
-        <v>-380</v>
+        <v>380</v>
       </c>
       <c r="L117">
         <f t="shared" si="13"/>
@@ -6928,11 +6950,11 @@
       </c>
       <c r="J118">
         <f t="shared" si="11"/>
-        <v>340</v>
+        <v>-340</v>
       </c>
       <c r="K118">
         <f t="shared" si="12"/>
-        <v>-460</v>
+        <v>460</v>
       </c>
       <c r="L118">
         <f t="shared" si="13"/>
@@ -6973,11 +6995,11 @@
       </c>
       <c r="J119">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="K119">
         <f t="shared" si="12"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L119">
         <f t="shared" si="13"/>
@@ -7018,11 +7040,11 @@
       </c>
       <c r="J120">
         <f t="shared" si="11"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="K120">
         <f t="shared" si="12"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L120">
         <f t="shared" si="13"/>
@@ -7063,11 +7085,11 @@
       </c>
       <c r="J121">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="K121">
         <f t="shared" si="12"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L121">
         <f t="shared" si="13"/>
@@ -7108,11 +7130,11 @@
       </c>
       <c r="J122">
         <f t="shared" si="11"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="K122">
         <f t="shared" si="12"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L122">
         <f t="shared" si="13"/>
@@ -7157,7 +7179,7 @@
       </c>
       <c r="K123">
         <f t="shared" si="12"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L123">
         <f t="shared" si="13"/>
@@ -7198,11 +7220,11 @@
       </c>
       <c r="J124">
         <f t="shared" si="11"/>
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="K124">
         <f t="shared" si="12"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L124">
         <f t="shared" si="13"/>
@@ -7243,11 +7265,11 @@
       </c>
       <c r="J125">
         <f t="shared" si="11"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="K125">
         <f t="shared" si="12"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L125">
         <f t="shared" si="13"/>
@@ -7288,11 +7310,11 @@
       </c>
       <c r="J126">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="K126">
         <f t="shared" si="12"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L126">
         <f t="shared" si="13"/>
@@ -7333,11 +7355,11 @@
       </c>
       <c r="J127">
         <f t="shared" si="11"/>
-        <v>600</v>
+        <v>-600</v>
       </c>
       <c r="K127">
         <f t="shared" si="12"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L127">
         <f t="shared" si="13"/>
@@ -7378,11 +7400,11 @@
       </c>
       <c r="J128">
         <f t="shared" si="11"/>
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K128">
         <f t="shared" si="12"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L128">
         <f t="shared" si="13"/>
@@ -7423,11 +7445,11 @@
       </c>
       <c r="J129">
         <f t="shared" si="11"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="K129">
         <f t="shared" si="12"/>
-        <v>-360</v>
+        <v>360</v>
       </c>
       <c r="L129">
         <f t="shared" si="13"/>
@@ -7468,11 +7490,11 @@
       </c>
       <c r="J130">
         <f t="shared" si="11"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="K130">
         <f t="shared" si="12"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L130">
         <f t="shared" si="13"/>
@@ -7512,12 +7534,12 @@
         <v>280</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="18">F131-G131</f>
-        <v>160</v>
+        <f t="shared" ref="J131:J194" si="18">-(F131-G131)</f>
+        <v>-160</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="19">H131-I131</f>
-        <v>-140</v>
+        <f t="shared" ref="K131:K194" si="19">-(H131-I131)</f>
+        <v>140</v>
       </c>
       <c r="L131">
         <f t="shared" ref="L131:L194" si="20">I131-G131</f>
@@ -7558,11 +7580,11 @@
       </c>
       <c r="J132">
         <f t="shared" si="18"/>
-        <v>260</v>
+        <v>-260</v>
       </c>
       <c r="K132">
         <f t="shared" si="19"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L132">
         <f t="shared" si="20"/>
@@ -7603,11 +7625,11 @@
       </c>
       <c r="J133">
         <f t="shared" si="18"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="K133">
         <f t="shared" si="19"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L133">
         <f t="shared" si="20"/>
@@ -7648,11 +7670,11 @@
       </c>
       <c r="J134">
         <f t="shared" si="18"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="K134">
         <f t="shared" si="19"/>
-        <v>-360</v>
+        <v>360</v>
       </c>
       <c r="L134">
         <f t="shared" si="20"/>
@@ -7693,11 +7715,11 @@
       </c>
       <c r="J135">
         <f t="shared" si="18"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="K135">
         <f t="shared" si="19"/>
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="L135">
         <f t="shared" si="20"/>
@@ -7738,11 +7760,11 @@
       </c>
       <c r="J136">
         <f t="shared" si="18"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="K136">
         <f t="shared" si="19"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="L136">
         <f t="shared" si="20"/>
@@ -7787,7 +7809,7 @@
       </c>
       <c r="K137">
         <f t="shared" si="19"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="L137">
         <f t="shared" si="20"/>
@@ -7828,11 +7850,11 @@
       </c>
       <c r="J138">
         <f t="shared" si="18"/>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="K138">
         <f t="shared" si="19"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L138">
         <f t="shared" si="20"/>
@@ -7873,11 +7895,11 @@
       </c>
       <c r="J139">
         <f t="shared" si="18"/>
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="K139">
         <f t="shared" si="19"/>
-        <v>-380</v>
+        <v>380</v>
       </c>
       <c r="L139">
         <f t="shared" si="20"/>
@@ -7918,11 +7940,11 @@
       </c>
       <c r="J140">
         <f t="shared" si="18"/>
-        <v>620</v>
+        <v>-620</v>
       </c>
       <c r="K140">
         <f t="shared" si="19"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L140">
         <f t="shared" si="20"/>
@@ -7963,11 +7985,11 @@
       </c>
       <c r="J141">
         <f t="shared" si="18"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="K141">
         <f t="shared" si="19"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L141">
         <f t="shared" si="20"/>
@@ -8008,11 +8030,11 @@
       </c>
       <c r="J142">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="K142">
         <f t="shared" si="19"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L142">
         <f t="shared" si="20"/>
@@ -8053,11 +8075,11 @@
       </c>
       <c r="J143">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="K143">
         <f t="shared" si="19"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L143">
         <f t="shared" si="20"/>
@@ -8098,11 +8120,11 @@
       </c>
       <c r="J144">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="K144">
         <f t="shared" si="19"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="L144">
         <f t="shared" si="20"/>
@@ -8143,11 +8165,11 @@
       </c>
       <c r="J145">
         <f t="shared" si="18"/>
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="K145">
         <f t="shared" si="19"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L145">
         <f t="shared" si="20"/>
@@ -8188,11 +8210,11 @@
       </c>
       <c r="J146">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="K146">
         <f t="shared" si="19"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L146">
         <f t="shared" si="20"/>
@@ -8233,11 +8255,11 @@
       </c>
       <c r="J147">
         <f t="shared" si="18"/>
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="K147">
         <f t="shared" si="19"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L147">
         <f t="shared" si="20"/>
@@ -8278,11 +8300,11 @@
       </c>
       <c r="J148">
         <f t="shared" si="18"/>
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="K148">
         <f t="shared" si="19"/>
-        <v>-380</v>
+        <v>380</v>
       </c>
       <c r="L148">
         <f t="shared" si="20"/>
@@ -8324,7 +8346,7 @@
       </c>
       <c r="K149">
         <f t="shared" si="19"/>
-        <v>-380</v>
+        <v>380</v>
       </c>
       <c r="L149">
         <f t="shared" si="20"/>
@@ -8365,11 +8387,11 @@
       </c>
       <c r="J150">
         <f t="shared" si="18"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="K150">
         <f t="shared" si="19"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L150">
         <f t="shared" si="20"/>
@@ -8410,11 +8432,11 @@
       </c>
       <c r="J151">
         <f t="shared" si="18"/>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="K151">
         <f t="shared" si="19"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L151">
         <f t="shared" si="20"/>
@@ -8455,11 +8477,11 @@
       </c>
       <c r="J152">
         <f t="shared" si="18"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K152">
         <f t="shared" si="19"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L152">
         <f t="shared" si="20"/>
@@ -8500,11 +8522,11 @@
       </c>
       <c r="J153">
         <f t="shared" si="18"/>
-        <v>140</v>
+        <v>-140</v>
       </c>
       <c r="K153">
         <f t="shared" si="19"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L153">
         <f t="shared" si="20"/>
@@ -8545,11 +8567,11 @@
       </c>
       <c r="J154">
         <f t="shared" si="18"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K154">
         <f t="shared" si="19"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L154">
         <f t="shared" si="20"/>
@@ -8590,11 +8612,11 @@
       </c>
       <c r="J155">
         <f t="shared" si="18"/>
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K155">
         <f t="shared" si="19"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L155">
         <f t="shared" si="20"/>
@@ -8635,11 +8657,11 @@
       </c>
       <c r="J156">
         <f t="shared" si="18"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="K156">
         <f t="shared" si="19"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L156">
         <f t="shared" si="20"/>
@@ -8680,11 +8702,11 @@
       </c>
       <c r="J157">
         <f t="shared" si="18"/>
-        <v>260</v>
+        <v>-260</v>
       </c>
       <c r="K157">
         <f t="shared" si="19"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="L157">
         <f t="shared" si="20"/>
@@ -8725,11 +8747,11 @@
       </c>
       <c r="J158">
         <f t="shared" si="18"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="K158">
         <f t="shared" si="19"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L158">
         <f t="shared" si="20"/>
@@ -8770,11 +8792,11 @@
       </c>
       <c r="J159">
         <f t="shared" si="18"/>
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="K159">
         <f t="shared" si="19"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L159">
         <f t="shared" si="20"/>
@@ -8816,7 +8838,7 @@
       </c>
       <c r="K160">
         <f t="shared" si="19"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L160">
         <f t="shared" si="20"/>
@@ -8857,11 +8879,11 @@
       </c>
       <c r="J161">
         <f t="shared" si="18"/>
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="K161">
         <f t="shared" si="19"/>
-        <v>-380</v>
+        <v>380</v>
       </c>
       <c r="L161">
         <f t="shared" si="20"/>
@@ -8902,11 +8924,11 @@
       </c>
       <c r="J162">
         <f t="shared" si="18"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="K162">
         <f t="shared" si="19"/>
-        <v>-500</v>
+        <v>500</v>
       </c>
       <c r="L162">
         <f t="shared" si="20"/>
@@ -8947,11 +8969,11 @@
       </c>
       <c r="J163">
         <f t="shared" si="18"/>
-        <v>340</v>
+        <v>-340</v>
       </c>
       <c r="K163">
         <f t="shared" si="19"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L163">
         <f t="shared" si="20"/>
@@ -8992,11 +9014,11 @@
       </c>
       <c r="J164">
         <f t="shared" si="18"/>
-        <v>520</v>
+        <v>-520</v>
       </c>
       <c r="K164">
         <f t="shared" si="19"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L164">
         <f t="shared" si="20"/>
@@ -9041,7 +9063,7 @@
       </c>
       <c r="K165">
         <f t="shared" si="19"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L165">
         <f t="shared" si="20"/>
@@ -9083,7 +9105,7 @@
       </c>
       <c r="K166">
         <f t="shared" si="19"/>
-        <v>-360</v>
+        <v>360</v>
       </c>
       <c r="L166">
         <f t="shared" si="20"/>
@@ -9124,11 +9146,11 @@
       </c>
       <c r="J167">
         <f t="shared" si="18"/>
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="K167">
         <f t="shared" si="19"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L167">
         <f t="shared" si="20"/>
@@ -9169,11 +9191,11 @@
       </c>
       <c r="J168">
         <f t="shared" si="18"/>
-        <v>-720</v>
+        <v>720</v>
       </c>
       <c r="K168">
         <f t="shared" si="19"/>
-        <v>-360</v>
+        <v>360</v>
       </c>
       <c r="L168">
         <f t="shared" si="20"/>
@@ -9214,11 +9236,11 @@
       </c>
       <c r="J169">
         <f t="shared" si="18"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="K169">
         <f t="shared" si="19"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L169">
         <f t="shared" si="20"/>
@@ -9259,11 +9281,11 @@
       </c>
       <c r="J170">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="K170">
         <f t="shared" si="19"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L170">
         <f t="shared" si="20"/>
@@ -9304,11 +9326,11 @@
       </c>
       <c r="J171">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="K171">
         <f t="shared" si="19"/>
-        <v>-360</v>
+        <v>360</v>
       </c>
       <c r="L171">
         <f t="shared" si="20"/>
@@ -9349,11 +9371,11 @@
       </c>
       <c r="J172">
         <f t="shared" si="18"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K172">
         <f t="shared" si="19"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L172">
         <f t="shared" si="20"/>
@@ -9394,11 +9416,11 @@
       </c>
       <c r="J173">
         <f t="shared" si="18"/>
-        <v>260</v>
+        <v>-260</v>
       </c>
       <c r="K173">
         <f t="shared" si="19"/>
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="L173">
         <f t="shared" si="20"/>
@@ -9439,11 +9461,11 @@
       </c>
       <c r="J174">
         <f t="shared" si="18"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="K174">
         <f t="shared" si="19"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L174">
         <f t="shared" si="20"/>
@@ -9484,11 +9506,11 @@
       </c>
       <c r="J175">
         <f t="shared" si="18"/>
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="K175">
         <f t="shared" si="19"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L175">
         <f t="shared" si="20"/>
@@ -9529,11 +9551,11 @@
       </c>
       <c r="J176">
         <f t="shared" si="18"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K176">
         <f t="shared" si="19"/>
-        <v>-420</v>
+        <v>420</v>
       </c>
       <c r="L176">
         <f t="shared" si="20"/>
@@ -9574,11 +9596,11 @@
       </c>
       <c r="J177">
         <f t="shared" si="18"/>
-        <v>280</v>
+        <v>-280</v>
       </c>
       <c r="K177">
         <f t="shared" si="19"/>
-        <v>-420</v>
+        <v>420</v>
       </c>
       <c r="L177">
         <f t="shared" si="20"/>
@@ -9619,11 +9641,11 @@
       </c>
       <c r="J178">
         <f t="shared" si="18"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="K178">
         <f t="shared" si="19"/>
-        <v>-720</v>
+        <v>720</v>
       </c>
       <c r="L178">
         <f t="shared" si="20"/>
@@ -9665,7 +9687,7 @@
       </c>
       <c r="K179">
         <f t="shared" si="19"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L179">
         <f t="shared" si="20"/>
@@ -9706,11 +9728,11 @@
       </c>
       <c r="J180">
         <f t="shared" si="18"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="K180">
         <f t="shared" si="19"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L180">
         <f t="shared" si="20"/>
@@ -9751,11 +9773,11 @@
       </c>
       <c r="J181">
         <f t="shared" si="18"/>
-        <v>460</v>
+        <v>-460</v>
       </c>
       <c r="K181">
         <f t="shared" si="19"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L181">
         <f t="shared" si="20"/>
@@ -9796,11 +9818,11 @@
       </c>
       <c r="J182">
         <f t="shared" si="18"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="K182">
         <f t="shared" si="19"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="L182">
         <f t="shared" si="20"/>
@@ -9841,11 +9863,11 @@
       </c>
       <c r="J183">
         <f t="shared" si="18"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="K183">
         <f t="shared" si="19"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L183">
         <f t="shared" si="20"/>
@@ -9886,11 +9908,11 @@
       </c>
       <c r="J184">
         <f t="shared" si="18"/>
-        <v>520</v>
+        <v>-520</v>
       </c>
       <c r="K184">
         <f t="shared" si="19"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L184">
         <f t="shared" si="20"/>
@@ -9931,11 +9953,11 @@
       </c>
       <c r="J185">
         <f t="shared" si="18"/>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="K185">
         <f t="shared" si="19"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="L185">
         <f t="shared" si="20"/>
@@ -9976,11 +9998,11 @@
       </c>
       <c r="J186">
         <f t="shared" si="18"/>
-        <v>680</v>
+        <v>-680</v>
       </c>
       <c r="K186">
         <f t="shared" si="19"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L186">
         <f t="shared" si="20"/>
@@ -10021,11 +10043,11 @@
       </c>
       <c r="J187">
         <f t="shared" si="18"/>
-        <v>460</v>
+        <v>-460</v>
       </c>
       <c r="K187">
         <f t="shared" si="19"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="L187">
         <f t="shared" si="20"/>
@@ -10066,11 +10088,11 @@
       </c>
       <c r="J188">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="K188">
         <f t="shared" si="19"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="L188">
         <f t="shared" si="20"/>
@@ -10111,11 +10133,11 @@
       </c>
       <c r="J189">
         <f t="shared" si="18"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="K189">
         <f t="shared" si="19"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L189">
         <f t="shared" si="20"/>
@@ -10156,11 +10178,11 @@
       </c>
       <c r="J190">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="K190">
         <f t="shared" si="19"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L190">
         <f t="shared" si="20"/>
@@ -10201,11 +10223,11 @@
       </c>
       <c r="J191">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="K191">
         <f t="shared" si="19"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L191">
         <f t="shared" si="20"/>
@@ -10246,11 +10268,11 @@
       </c>
       <c r="J192">
         <f t="shared" si="18"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K192">
         <f t="shared" si="19"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L192">
         <f t="shared" si="20"/>
@@ -10291,11 +10313,11 @@
       </c>
       <c r="J193">
         <f t="shared" si="18"/>
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="K193">
         <f t="shared" si="19"/>
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="L193">
         <f t="shared" si="20"/>
@@ -10336,11 +10358,11 @@
       </c>
       <c r="J194">
         <f t="shared" si="18"/>
-        <v>680</v>
+        <v>-680</v>
       </c>
       <c r="K194">
         <f t="shared" si="19"/>
-        <v>-420</v>
+        <v>420</v>
       </c>
       <c r="L194">
         <f t="shared" si="20"/>
@@ -10380,12 +10402,12 @@
         <v>440</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J258" si="25">F195-G195</f>
-        <v>420</v>
+        <f t="shared" ref="J195:J258" si="25">-(F195-G195)</f>
+        <v>-420</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K258" si="26">H195-I195</f>
-        <v>-300</v>
+        <f t="shared" ref="K195:K258" si="26">-(H195-I195)</f>
+        <v>300</v>
       </c>
       <c r="L195">
         <f t="shared" ref="L195:L258" si="27">I195-G195</f>
@@ -10426,11 +10448,11 @@
       </c>
       <c r="J196">
         <f t="shared" si="25"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="K196">
         <f t="shared" si="26"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L196">
         <f t="shared" si="27"/>
@@ -10471,11 +10493,11 @@
       </c>
       <c r="J197">
         <f t="shared" si="25"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="K197">
         <f t="shared" si="26"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L197">
         <f t="shared" si="27"/>
@@ -10516,11 +10538,11 @@
       </c>
       <c r="J198">
         <f t="shared" si="25"/>
-        <v>520</v>
+        <v>-520</v>
       </c>
       <c r="K198">
         <f t="shared" si="26"/>
-        <v>-520</v>
+        <v>520</v>
       </c>
       <c r="L198">
         <f t="shared" si="27"/>
@@ -10561,11 +10583,11 @@
       </c>
       <c r="J199">
         <f t="shared" si="25"/>
-        <v>560</v>
+        <v>-560</v>
       </c>
       <c r="K199">
         <f t="shared" si="26"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="L199">
         <f t="shared" si="27"/>
@@ -10606,11 +10628,11 @@
       </c>
       <c r="J200">
         <f t="shared" si="25"/>
-        <v>560</v>
+        <v>-560</v>
       </c>
       <c r="K200">
         <f t="shared" si="26"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L200">
         <f t="shared" si="27"/>
@@ -10651,11 +10673,11 @@
       </c>
       <c r="J201">
         <f t="shared" si="25"/>
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="K201">
         <f t="shared" si="26"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L201">
         <f t="shared" si="27"/>
@@ -10696,11 +10718,11 @@
       </c>
       <c r="J202">
         <f t="shared" si="25"/>
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="K202">
         <f t="shared" si="26"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L202">
         <f t="shared" si="27"/>
@@ -10741,11 +10763,11 @@
       </c>
       <c r="J203">
         <f t="shared" si="25"/>
-        <v>280</v>
+        <v>-280</v>
       </c>
       <c r="K203">
         <f t="shared" si="26"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L203">
         <f t="shared" si="27"/>
@@ -10786,11 +10808,11 @@
       </c>
       <c r="J204">
         <f t="shared" si="25"/>
-        <v>280</v>
+        <v>-280</v>
       </c>
       <c r="K204">
         <f t="shared" si="26"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L204">
         <f t="shared" si="27"/>
@@ -10831,11 +10853,11 @@
       </c>
       <c r="J205">
         <f t="shared" si="25"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="K205">
         <f t="shared" si="26"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L205">
         <f t="shared" si="27"/>
@@ -10876,11 +10898,11 @@
       </c>
       <c r="J206">
         <f t="shared" si="25"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K206">
         <f t="shared" si="26"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L206">
         <f t="shared" si="27"/>
@@ -10921,11 +10943,11 @@
       </c>
       <c r="J207">
         <f t="shared" si="25"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="K207">
         <f t="shared" si="26"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L207">
         <f t="shared" si="27"/>
@@ -10966,11 +10988,11 @@
       </c>
       <c r="J208">
         <f t="shared" si="25"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="K208">
         <f t="shared" si="26"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L208">
         <f t="shared" si="27"/>
@@ -11011,11 +11033,11 @@
       </c>
       <c r="J209">
         <f t="shared" si="25"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="K209">
         <f t="shared" si="26"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L209">
         <f t="shared" si="27"/>
@@ -11056,11 +11078,11 @@
       </c>
       <c r="J210">
         <f t="shared" si="25"/>
-        <v>320</v>
+        <v>-320</v>
       </c>
       <c r="K210">
         <f t="shared" si="26"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L210">
         <f t="shared" si="27"/>
@@ -11101,11 +11123,11 @@
       </c>
       <c r="J211">
         <f t="shared" si="25"/>
-        <v>140</v>
+        <v>-140</v>
       </c>
       <c r="K211">
         <f t="shared" si="26"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L211">
         <f t="shared" si="27"/>
@@ -11146,11 +11168,11 @@
       </c>
       <c r="J212">
         <f t="shared" si="25"/>
-        <v>560</v>
+        <v>-560</v>
       </c>
       <c r="K212">
         <f t="shared" si="26"/>
-        <v>-360</v>
+        <v>360</v>
       </c>
       <c r="L212">
         <f t="shared" si="27"/>
@@ -11191,11 +11213,11 @@
       </c>
       <c r="J213">
         <f t="shared" si="25"/>
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="K213">
         <f t="shared" si="26"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L213">
         <f t="shared" si="27"/>
@@ -11237,7 +11259,7 @@
       </c>
       <c r="K214">
         <f t="shared" si="26"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L214">
         <f t="shared" si="27"/>
@@ -11278,11 +11300,11 @@
       </c>
       <c r="J215">
         <f t="shared" si="25"/>
-        <v>280</v>
+        <v>-280</v>
       </c>
       <c r="K215">
         <f t="shared" si="26"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L215">
         <f t="shared" si="27"/>
@@ -11323,11 +11345,11 @@
       </c>
       <c r="J216">
         <f t="shared" si="25"/>
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="K216">
         <f t="shared" si="26"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L216">
         <f t="shared" si="27"/>
@@ -11368,11 +11390,11 @@
       </c>
       <c r="J217">
         <f t="shared" si="25"/>
-        <v>280</v>
+        <v>-280</v>
       </c>
       <c r="K217">
         <f t="shared" si="26"/>
-        <v>-380</v>
+        <v>380</v>
       </c>
       <c r="L217">
         <f t="shared" si="27"/>
@@ -11413,11 +11435,11 @@
       </c>
       <c r="J218">
         <f t="shared" si="25"/>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="K218">
         <f t="shared" si="26"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L218">
         <f t="shared" si="27"/>
@@ -11458,11 +11480,11 @@
       </c>
       <c r="J219">
         <f t="shared" si="25"/>
-        <v>340</v>
+        <v>-340</v>
       </c>
       <c r="K219">
         <f t="shared" si="26"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="L219">
         <f t="shared" si="27"/>
@@ -11503,11 +11525,11 @@
       </c>
       <c r="J220">
         <f t="shared" si="25"/>
-        <v>720</v>
+        <v>-720</v>
       </c>
       <c r="K220">
         <f t="shared" si="26"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L220">
         <f t="shared" si="27"/>
@@ -11548,11 +11570,11 @@
       </c>
       <c r="J221">
         <f t="shared" si="25"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="K221">
         <f t="shared" si="26"/>
-        <v>-420</v>
+        <v>420</v>
       </c>
       <c r="L221">
         <f t="shared" si="27"/>
@@ -11593,11 +11615,11 @@
       </c>
       <c r="J222">
         <f t="shared" si="25"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="K222">
         <f t="shared" si="26"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L222">
         <f t="shared" si="27"/>
@@ -11638,11 +11660,11 @@
       </c>
       <c r="J223">
         <f t="shared" si="25"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="K223">
         <f t="shared" si="26"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L223">
         <f t="shared" si="27"/>
@@ -11683,11 +11705,11 @@
       </c>
       <c r="J224">
         <f t="shared" si="25"/>
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="K224">
         <f t="shared" si="26"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L224">
         <f t="shared" si="27"/>
@@ -11728,11 +11750,11 @@
       </c>
       <c r="J225">
         <f t="shared" si="25"/>
-        <v>220</v>
+        <v>-220</v>
       </c>
       <c r="K225">
         <f t="shared" si="26"/>
-        <v>-360</v>
+        <v>360</v>
       </c>
       <c r="L225">
         <f t="shared" si="27"/>
@@ -11773,11 +11795,11 @@
       </c>
       <c r="J226">
         <f t="shared" si="25"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="K226">
         <f t="shared" si="26"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L226">
         <f t="shared" si="27"/>
@@ -11818,11 +11840,11 @@
       </c>
       <c r="J227">
         <f t="shared" si="25"/>
-        <v>260</v>
+        <v>-260</v>
       </c>
       <c r="K227">
         <f t="shared" si="26"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="L227">
         <f t="shared" si="27"/>
@@ -11863,11 +11885,11 @@
       </c>
       <c r="J228">
         <f t="shared" si="25"/>
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="K228">
         <f t="shared" si="26"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L228">
         <f t="shared" si="27"/>
@@ -11908,11 +11930,11 @@
       </c>
       <c r="J229">
         <f t="shared" si="25"/>
-        <v>220</v>
+        <v>-220</v>
       </c>
       <c r="K229">
         <f t="shared" si="26"/>
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="L229">
         <f t="shared" si="27"/>
@@ -11954,7 +11976,7 @@
       </c>
       <c r="K230">
         <f t="shared" si="26"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L230">
         <f t="shared" si="27"/>
@@ -11995,11 +12017,11 @@
       </c>
       <c r="J231">
         <f t="shared" si="25"/>
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="K231">
         <f t="shared" si="26"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L231">
         <f t="shared" si="27"/>
@@ -12040,11 +12062,11 @@
       </c>
       <c r="J232">
         <f t="shared" si="25"/>
-        <v>400</v>
+        <v>-400</v>
       </c>
       <c r="K232">
         <f t="shared" si="26"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L232">
         <f t="shared" si="27"/>
@@ -12085,11 +12107,11 @@
       </c>
       <c r="J233">
         <f t="shared" si="25"/>
-        <v>220</v>
+        <v>-220</v>
       </c>
       <c r="K233">
         <f t="shared" si="26"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L233">
         <f t="shared" si="27"/>
@@ -12130,11 +12152,11 @@
       </c>
       <c r="J234">
         <f t="shared" si="25"/>
-        <v>320</v>
+        <v>-320</v>
       </c>
       <c r="K234">
         <f t="shared" si="26"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L234">
         <f t="shared" si="27"/>
@@ -12175,11 +12197,11 @@
       </c>
       <c r="J235">
         <f t="shared" si="25"/>
-        <v>220</v>
+        <v>-220</v>
       </c>
       <c r="K235">
         <f t="shared" si="26"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L235">
         <f t="shared" si="27"/>
@@ -12220,11 +12242,11 @@
       </c>
       <c r="J236">
         <f t="shared" si="25"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="K236">
         <f t="shared" si="26"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L236">
         <f t="shared" si="27"/>
@@ -12265,11 +12287,11 @@
       </c>
       <c r="J237">
         <f t="shared" si="25"/>
-        <v>140</v>
+        <v>-140</v>
       </c>
       <c r="K237">
         <f t="shared" si="26"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L237">
         <f t="shared" si="27"/>
@@ -12310,11 +12332,11 @@
       </c>
       <c r="J238">
         <f t="shared" si="25"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="K238">
         <f t="shared" si="26"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L238">
         <f t="shared" si="27"/>
@@ -12355,11 +12377,11 @@
       </c>
       <c r="J239">
         <f t="shared" si="25"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="K239">
         <f t="shared" si="26"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L239">
         <f t="shared" si="27"/>
@@ -12400,11 +12422,11 @@
       </c>
       <c r="J240">
         <f t="shared" si="25"/>
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K240">
         <f t="shared" si="26"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L240">
         <f t="shared" si="27"/>
@@ -12445,11 +12467,11 @@
       </c>
       <c r="J241">
         <f t="shared" si="25"/>
-        <v>140</v>
+        <v>-140</v>
       </c>
       <c r="K241">
         <f t="shared" si="26"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L241">
         <f t="shared" si="27"/>
@@ -12490,11 +12512,11 @@
       </c>
       <c r="J242">
         <f t="shared" si="25"/>
-        <v>140</v>
+        <v>-140</v>
       </c>
       <c r="K242">
         <f t="shared" si="26"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L242">
         <f t="shared" si="27"/>
@@ -12535,11 +12557,11 @@
       </c>
       <c r="J243">
         <f t="shared" si="25"/>
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="K243">
         <f t="shared" si="26"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L243">
         <f t="shared" si="27"/>
@@ -12580,11 +12602,11 @@
       </c>
       <c r="J244">
         <f t="shared" si="25"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="K244">
         <f t="shared" si="26"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L244">
         <f t="shared" si="27"/>
@@ -12625,11 +12647,11 @@
       </c>
       <c r="J245">
         <f t="shared" si="25"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="K245">
         <f t="shared" si="26"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L245">
         <f t="shared" si="27"/>
@@ -12670,11 +12692,11 @@
       </c>
       <c r="J246">
         <f t="shared" si="25"/>
-        <v>280</v>
+        <v>-280</v>
       </c>
       <c r="K246">
         <f t="shared" si="26"/>
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="L246">
         <f t="shared" si="27"/>
@@ -12715,11 +12737,11 @@
       </c>
       <c r="J247">
         <f t="shared" si="25"/>
-        <v>280</v>
+        <v>-280</v>
       </c>
       <c r="K247">
         <f t="shared" si="26"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L247">
         <f t="shared" si="27"/>
@@ -12760,11 +12782,11 @@
       </c>
       <c r="J248">
         <f t="shared" si="25"/>
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="K248">
         <f t="shared" si="26"/>
-        <v>-560</v>
+        <v>560</v>
       </c>
       <c r="L248">
         <f t="shared" si="27"/>
@@ -12805,11 +12827,11 @@
       </c>
       <c r="J249">
         <f t="shared" si="25"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="K249">
         <f t="shared" si="26"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L249">
         <f t="shared" si="27"/>
@@ -12850,11 +12872,11 @@
       </c>
       <c r="J250">
         <f t="shared" si="25"/>
-        <v>480</v>
+        <v>-480</v>
       </c>
       <c r="K250">
         <f t="shared" si="26"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L250">
         <f t="shared" si="27"/>
@@ -12895,11 +12917,11 @@
       </c>
       <c r="J251">
         <f t="shared" si="25"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="K251">
         <f t="shared" si="26"/>
-        <v>-680</v>
+        <v>680</v>
       </c>
       <c r="L251">
         <f t="shared" si="27"/>
@@ -12940,11 +12962,11 @@
       </c>
       <c r="J252">
         <f t="shared" si="25"/>
-        <v>860</v>
+        <v>-860</v>
       </c>
       <c r="K252">
         <f t="shared" si="26"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L252">
         <f t="shared" si="27"/>
@@ -12985,7 +13007,7 @@
       </c>
       <c r="J253">
         <f t="shared" si="25"/>
-        <v>140</v>
+        <v>-140</v>
       </c>
       <c r="K253">
         <f t="shared" si="26"/>
@@ -13030,11 +13052,11 @@
       </c>
       <c r="J254">
         <f t="shared" si="25"/>
-        <v>400</v>
+        <v>-400</v>
       </c>
       <c r="K254">
         <f t="shared" si="26"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="L254">
         <f t="shared" si="27"/>
@@ -13075,11 +13097,11 @@
       </c>
       <c r="J255">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="K255">
         <f t="shared" si="26"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L255">
         <f t="shared" si="27"/>
@@ -13120,11 +13142,11 @@
       </c>
       <c r="J256">
         <f t="shared" si="25"/>
-        <v>420</v>
+        <v>-420</v>
       </c>
       <c r="K256">
         <f t="shared" si="26"/>
-        <v>-360</v>
+        <v>360</v>
       </c>
       <c r="L256">
         <f t="shared" si="27"/>
@@ -13165,11 +13187,11 @@
       </c>
       <c r="J257">
         <f t="shared" si="25"/>
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="K257">
         <f t="shared" si="26"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L257">
         <f t="shared" si="27"/>
@@ -13210,11 +13232,11 @@
       </c>
       <c r="J258">
         <f t="shared" si="25"/>
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="K258">
         <f t="shared" si="26"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L258">
         <f t="shared" si="27"/>
@@ -13254,12 +13276,12 @@
         <v>500</v>
       </c>
       <c r="J259">
-        <f t="shared" ref="J259:J322" si="32">F259-G259</f>
-        <v>-160</v>
+        <f t="shared" ref="J259:J322" si="32">-(F259-G259)</f>
+        <v>160</v>
       </c>
       <c r="K259">
-        <f t="shared" ref="K259:K322" si="33">H259-I259</f>
-        <v>-460</v>
+        <f t="shared" ref="K259:K322" si="33">-(H259-I259)</f>
+        <v>460</v>
       </c>
       <c r="L259">
         <f t="shared" ref="L259:L322" si="34">I259-G259</f>
@@ -13300,11 +13322,11 @@
       </c>
       <c r="J260">
         <f t="shared" si="32"/>
-        <v>960</v>
+        <v>-960</v>
       </c>
       <c r="K260">
         <f t="shared" si="33"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L260">
         <f t="shared" si="34"/>
@@ -13346,7 +13368,7 @@
       </c>
       <c r="K261">
         <f t="shared" si="33"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L261">
         <f t="shared" si="34"/>
@@ -13387,11 +13409,11 @@
       </c>
       <c r="J262">
         <f t="shared" si="32"/>
-        <v>560</v>
+        <v>-560</v>
       </c>
       <c r="K262">
         <f t="shared" si="33"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L262">
         <f t="shared" si="34"/>
@@ -13433,7 +13455,7 @@
       </c>
       <c r="K263">
         <f t="shared" si="33"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L263">
         <f t="shared" si="34"/>
@@ -13474,11 +13496,11 @@
       </c>
       <c r="J264">
         <f t="shared" si="32"/>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="K264">
         <f t="shared" si="33"/>
-        <v>-360</v>
+        <v>360</v>
       </c>
       <c r="L264">
         <f t="shared" si="34"/>
@@ -13519,11 +13541,11 @@
       </c>
       <c r="J265">
         <f t="shared" si="32"/>
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="K265">
         <f t="shared" si="33"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L265">
         <f t="shared" si="34"/>
@@ -13564,11 +13586,11 @@
       </c>
       <c r="J266">
         <f t="shared" si="32"/>
-        <v>680</v>
+        <v>-680</v>
       </c>
       <c r="K266">
         <f t="shared" si="33"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L266">
         <f t="shared" si="34"/>
@@ -13609,11 +13631,11 @@
       </c>
       <c r="J267">
         <f t="shared" si="32"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="K267">
         <f t="shared" si="33"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L267">
         <f t="shared" si="34"/>
@@ -13654,11 +13676,11 @@
       </c>
       <c r="J268">
         <f t="shared" si="32"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="K268">
         <f t="shared" si="33"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L268">
         <f t="shared" si="34"/>
@@ -13699,11 +13721,11 @@
       </c>
       <c r="J269">
         <f t="shared" si="32"/>
-        <v>220</v>
+        <v>-220</v>
       </c>
       <c r="K269">
         <f t="shared" si="33"/>
-        <v>-640</v>
+        <v>640</v>
       </c>
       <c r="L269">
         <f t="shared" si="34"/>
@@ -13744,11 +13766,11 @@
       </c>
       <c r="J270">
         <f t="shared" si="32"/>
-        <v>320</v>
+        <v>-320</v>
       </c>
       <c r="K270">
         <f t="shared" si="33"/>
-        <v>-500</v>
+        <v>500</v>
       </c>
       <c r="L270">
         <f t="shared" si="34"/>
@@ -13789,11 +13811,11 @@
       </c>
       <c r="J271">
         <f t="shared" si="32"/>
-        <v>340</v>
+        <v>-340</v>
       </c>
       <c r="K271">
         <f t="shared" si="33"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L271">
         <f t="shared" si="34"/>
@@ -13834,11 +13856,11 @@
       </c>
       <c r="J272">
         <f t="shared" si="32"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="K272">
         <f t="shared" si="33"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L272">
         <f t="shared" si="34"/>
@@ -13879,11 +13901,11 @@
       </c>
       <c r="J273">
         <f t="shared" si="32"/>
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="K273">
         <f t="shared" si="33"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L273">
         <f t="shared" si="34"/>
@@ -13924,11 +13946,11 @@
       </c>
       <c r="J274">
         <f t="shared" si="32"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="K274">
         <f t="shared" si="33"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L274">
         <f t="shared" si="34"/>
@@ -13970,7 +13992,7 @@
       </c>
       <c r="K275">
         <f t="shared" si="33"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L275">
         <f t="shared" si="34"/>
@@ -14011,11 +14033,11 @@
       </c>
       <c r="J276">
         <f t="shared" si="32"/>
-        <v>220</v>
+        <v>-220</v>
       </c>
       <c r="K276">
         <f t="shared" si="33"/>
-        <v>-620</v>
+        <v>620</v>
       </c>
       <c r="L276">
         <f t="shared" si="34"/>
@@ -14056,11 +14078,11 @@
       </c>
       <c r="J277">
         <f t="shared" si="32"/>
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="K277">
         <f t="shared" si="33"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L277">
         <f t="shared" si="34"/>
@@ -14101,11 +14123,11 @@
       </c>
       <c r="J278">
         <f t="shared" si="32"/>
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="K278">
         <f t="shared" si="33"/>
-        <v>-420</v>
+        <v>420</v>
       </c>
       <c r="L278">
         <f t="shared" si="34"/>
@@ -14146,11 +14168,11 @@
       </c>
       <c r="J279">
         <f t="shared" si="32"/>
-        <v>320</v>
+        <v>-320</v>
       </c>
       <c r="K279">
         <f t="shared" si="33"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L279">
         <f t="shared" si="34"/>
@@ -14191,11 +14213,11 @@
       </c>
       <c r="J280">
         <f t="shared" si="32"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="K280">
         <f t="shared" si="33"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L280">
         <f t="shared" si="34"/>
@@ -14236,11 +14258,11 @@
       </c>
       <c r="J281">
         <f t="shared" si="32"/>
-        <v>140</v>
+        <v>-140</v>
       </c>
       <c r="K281">
         <f t="shared" si="33"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L281">
         <f t="shared" si="34"/>
@@ -14281,11 +14303,11 @@
       </c>
       <c r="J282">
         <f t="shared" si="32"/>
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K282">
         <f t="shared" si="33"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L282">
         <f t="shared" si="34"/>
@@ -14326,11 +14348,11 @@
       </c>
       <c r="J283">
         <f t="shared" si="32"/>
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="K283">
         <f t="shared" si="33"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L283">
         <f t="shared" si="34"/>
@@ -14371,11 +14393,11 @@
       </c>
       <c r="J284">
         <f t="shared" si="32"/>
-        <v>560</v>
+        <v>-560</v>
       </c>
       <c r="K284">
         <f t="shared" si="33"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L284">
         <f t="shared" si="34"/>
@@ -14416,11 +14438,11 @@
       </c>
       <c r="J285">
         <f t="shared" si="32"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="K285">
         <f t="shared" si="33"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L285">
         <f t="shared" si="34"/>
@@ -14461,11 +14483,11 @@
       </c>
       <c r="J286">
         <f t="shared" si="32"/>
-        <v>480</v>
+        <v>-480</v>
       </c>
       <c r="K286">
         <f t="shared" si="33"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="L286">
         <f t="shared" si="34"/>
@@ -14506,11 +14528,11 @@
       </c>
       <c r="J287">
         <f t="shared" si="32"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="K287">
         <f t="shared" si="33"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L287">
         <f t="shared" si="34"/>
@@ -14551,11 +14573,11 @@
       </c>
       <c r="J288">
         <f t="shared" si="32"/>
-        <v>420</v>
+        <v>-420</v>
       </c>
       <c r="K288">
         <f t="shared" si="33"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="L288">
         <f t="shared" si="34"/>
@@ -14596,11 +14618,11 @@
       </c>
       <c r="J289">
         <f t="shared" si="32"/>
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="K289">
         <f t="shared" si="33"/>
-        <v>-440</v>
+        <v>440</v>
       </c>
       <c r="L289">
         <f t="shared" si="34"/>
@@ -14641,11 +14663,11 @@
       </c>
       <c r="J290">
         <f t="shared" si="32"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K290">
         <f t="shared" si="33"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L290">
         <f t="shared" si="34"/>
@@ -14686,11 +14708,11 @@
       </c>
       <c r="J291">
         <f t="shared" si="32"/>
-        <v>220</v>
+        <v>-220</v>
       </c>
       <c r="K291">
         <f t="shared" si="33"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L291">
         <f t="shared" si="34"/>
@@ -14731,11 +14753,11 @@
       </c>
       <c r="J292">
         <f t="shared" si="32"/>
-        <v>460</v>
+        <v>-460</v>
       </c>
       <c r="K292">
         <f t="shared" si="33"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L292">
         <f t="shared" si="34"/>
@@ -14776,11 +14798,11 @@
       </c>
       <c r="J293">
         <f t="shared" si="32"/>
-        <v>220</v>
+        <v>-220</v>
       </c>
       <c r="K293">
         <f t="shared" si="33"/>
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="L293">
         <f t="shared" si="34"/>
@@ -14821,11 +14843,11 @@
       </c>
       <c r="J294">
         <f t="shared" si="32"/>
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="K294">
         <f t="shared" si="33"/>
-        <v>-480</v>
+        <v>480</v>
       </c>
       <c r="L294">
         <f t="shared" si="34"/>
@@ -14866,11 +14888,11 @@
       </c>
       <c r="J295">
         <f t="shared" si="32"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="K295">
         <f t="shared" si="33"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L295">
         <f t="shared" si="34"/>
@@ -14911,11 +14933,11 @@
       </c>
       <c r="J296">
         <f t="shared" si="32"/>
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="K296">
         <f t="shared" si="33"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L296">
         <f t="shared" si="34"/>
@@ -14956,11 +14978,11 @@
       </c>
       <c r="J297">
         <f t="shared" si="32"/>
-        <v>140</v>
+        <v>-140</v>
       </c>
       <c r="K297">
         <f t="shared" si="33"/>
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="L297">
         <f t="shared" si="34"/>
@@ -15001,11 +15023,11 @@
       </c>
       <c r="J298">
         <f t="shared" si="32"/>
-        <v>620</v>
+        <v>-620</v>
       </c>
       <c r="K298">
         <f t="shared" si="33"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="L298">
         <f t="shared" si="34"/>
@@ -15046,11 +15068,11 @@
       </c>
       <c r="J299">
         <f t="shared" si="32"/>
-        <v>-380</v>
+        <v>380</v>
       </c>
       <c r="K299">
         <f t="shared" si="33"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L299">
         <f t="shared" si="34"/>
@@ -15091,11 +15113,11 @@
       </c>
       <c r="J300">
         <f t="shared" si="32"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="K300">
         <f t="shared" si="33"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L300">
         <f t="shared" si="34"/>
@@ -15136,11 +15158,11 @@
       </c>
       <c r="J301">
         <f t="shared" si="32"/>
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="K301">
         <f t="shared" si="33"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L301">
         <f t="shared" si="34"/>
@@ -15185,7 +15207,7 @@
       </c>
       <c r="K302">
         <f t="shared" si="33"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L302">
         <f t="shared" si="34"/>
@@ -15226,11 +15248,11 @@
       </c>
       <c r="J303">
         <f t="shared" si="32"/>
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="K303">
         <f t="shared" si="33"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L303">
         <f t="shared" si="34"/>
@@ -15271,11 +15293,11 @@
       </c>
       <c r="J304">
         <f t="shared" si="32"/>
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="K304">
         <f t="shared" si="33"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L304">
         <f t="shared" si="34"/>
@@ -15316,11 +15338,11 @@
       </c>
       <c r="J305">
         <f t="shared" si="32"/>
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="K305">
         <f t="shared" si="33"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L305">
         <f t="shared" si="34"/>
@@ -15361,11 +15383,11 @@
       </c>
       <c r="J306">
         <f t="shared" si="32"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="K306">
         <f t="shared" si="33"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L306">
         <f t="shared" si="34"/>
@@ -15406,11 +15428,11 @@
       </c>
       <c r="J307">
         <f t="shared" si="32"/>
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="K307">
         <f t="shared" si="33"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L307">
         <f t="shared" si="34"/>
@@ -15451,11 +15473,11 @@
       </c>
       <c r="J308">
         <f t="shared" si="32"/>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="K308">
         <f t="shared" si="33"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L308">
         <f t="shared" si="34"/>
@@ -15496,11 +15518,11 @@
       </c>
       <c r="J309">
         <f t="shared" si="32"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="K309">
         <f t="shared" si="33"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L309">
         <f t="shared" si="34"/>
@@ -15541,11 +15563,11 @@
       </c>
       <c r="J310">
         <f t="shared" si="32"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="K310">
         <f t="shared" si="33"/>
-        <v>-560</v>
+        <v>560</v>
       </c>
       <c r="L310">
         <f t="shared" si="34"/>
@@ -15586,11 +15608,11 @@
       </c>
       <c r="J311">
         <f t="shared" si="32"/>
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K311">
         <f t="shared" si="33"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L311">
         <f t="shared" si="34"/>
@@ -15631,11 +15653,11 @@
       </c>
       <c r="J312">
         <f t="shared" si="32"/>
-        <v>260</v>
+        <v>-260</v>
       </c>
       <c r="K312">
         <f t="shared" si="33"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L312">
         <f t="shared" si="34"/>
@@ -15676,11 +15698,11 @@
       </c>
       <c r="J313">
         <f t="shared" si="32"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="K313">
         <f t="shared" si="33"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L313">
         <f t="shared" si="34"/>
@@ -15721,11 +15743,11 @@
       </c>
       <c r="J314">
         <f t="shared" si="32"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="K314">
         <f t="shared" si="33"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L314">
         <f t="shared" si="34"/>
@@ -15766,11 +15788,11 @@
       </c>
       <c r="J315">
         <f t="shared" si="32"/>
-        <v>340</v>
+        <v>-340</v>
       </c>
       <c r="K315">
         <f t="shared" si="33"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L315">
         <f t="shared" si="34"/>
@@ -15811,11 +15833,11 @@
       </c>
       <c r="J316">
         <f t="shared" si="32"/>
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="K316">
         <f t="shared" si="33"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L316">
         <f t="shared" si="34"/>
@@ -15856,11 +15878,11 @@
       </c>
       <c r="J317">
         <f t="shared" si="32"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="K317">
         <f t="shared" si="33"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L317">
         <f t="shared" si="34"/>
@@ -15901,11 +15923,11 @@
       </c>
       <c r="J318">
         <f t="shared" si="32"/>
-        <v>260</v>
+        <v>-260</v>
       </c>
       <c r="K318">
         <f t="shared" si="33"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L318">
         <f t="shared" si="34"/>
@@ -15946,11 +15968,11 @@
       </c>
       <c r="J319">
         <f t="shared" si="32"/>
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="K319">
         <f t="shared" si="33"/>
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="L319">
         <f t="shared" si="34"/>
@@ -15991,11 +16013,11 @@
       </c>
       <c r="J320">
         <f t="shared" si="32"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="K320">
         <f t="shared" si="33"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L320">
         <f t="shared" si="34"/>
@@ -16036,11 +16058,11 @@
       </c>
       <c r="J321">
         <f t="shared" si="32"/>
-        <v>340</v>
+        <v>-340</v>
       </c>
       <c r="K321">
         <f t="shared" si="33"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L321">
         <f t="shared" si="34"/>
@@ -16081,11 +16103,11 @@
       </c>
       <c r="J322">
         <f t="shared" si="32"/>
-        <v>380</v>
+        <v>-380</v>
       </c>
       <c r="K322">
         <f t="shared" si="33"/>
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="L322">
         <f t="shared" si="34"/>
@@ -16125,12 +16147,12 @@
         <v>320</v>
       </c>
       <c r="J323">
-        <f t="shared" ref="J323:J386" si="39">F323-G323</f>
-        <v>200</v>
+        <f t="shared" ref="J323:J386" si="39">-(F323-G323)</f>
+        <v>-200</v>
       </c>
       <c r="K323">
-        <f t="shared" ref="K323:K386" si="40">H323-I323</f>
-        <v>-260</v>
+        <f t="shared" ref="K323:K386" si="40">-(H323-I323)</f>
+        <v>260</v>
       </c>
       <c r="L323">
         <f t="shared" ref="L323:L386" si="41">I323-G323</f>
@@ -16172,7 +16194,7 @@
       </c>
       <c r="K324">
         <f t="shared" si="40"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="L324">
         <f t="shared" si="41"/>
@@ -16213,11 +16235,11 @@
       </c>
       <c r="J325">
         <f t="shared" si="39"/>
-        <v>780</v>
+        <v>-780</v>
       </c>
       <c r="K325">
         <f t="shared" si="40"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L325">
         <f t="shared" si="41"/>
@@ -16258,11 +16280,11 @@
       </c>
       <c r="J326">
         <f t="shared" si="39"/>
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="K326">
         <f t="shared" si="40"/>
-        <v>-440</v>
+        <v>440</v>
       </c>
       <c r="L326">
         <f t="shared" si="41"/>
@@ -16303,11 +16325,11 @@
       </c>
       <c r="J327">
         <f t="shared" si="39"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="K327">
         <f t="shared" si="40"/>
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="L327">
         <f t="shared" si="41"/>
@@ -16348,11 +16370,11 @@
       </c>
       <c r="J328">
         <f t="shared" si="39"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="K328">
         <f t="shared" si="40"/>
-        <v>-560</v>
+        <v>560</v>
       </c>
       <c r="L328">
         <f t="shared" si="41"/>
@@ -16393,11 +16415,11 @@
       </c>
       <c r="J329">
         <f t="shared" si="39"/>
-        <v>680</v>
+        <v>-680</v>
       </c>
       <c r="K329">
         <f t="shared" si="40"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="L329">
         <f t="shared" si="41"/>
@@ -16438,11 +16460,11 @@
       </c>
       <c r="J330">
         <f t="shared" si="39"/>
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="K330">
         <f t="shared" si="40"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L330">
         <f t="shared" si="41"/>
@@ -16483,11 +16505,11 @@
       </c>
       <c r="J331">
         <f t="shared" si="39"/>
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="K331">
         <f t="shared" si="40"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L331">
         <f t="shared" si="41"/>
@@ -16528,11 +16550,11 @@
       </c>
       <c r="J332">
         <f t="shared" si="39"/>
-        <v>400</v>
+        <v>-400</v>
       </c>
       <c r="K332">
         <f t="shared" si="40"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L332">
         <f t="shared" si="41"/>
@@ -16573,11 +16595,11 @@
       </c>
       <c r="J333">
         <f t="shared" si="39"/>
-        <v>580</v>
+        <v>-580</v>
       </c>
       <c r="K333">
         <f t="shared" si="40"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L333">
         <f t="shared" si="41"/>
@@ -16618,11 +16640,11 @@
       </c>
       <c r="J334">
         <f t="shared" si="39"/>
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K334">
         <f t="shared" si="40"/>
-        <v>-460</v>
+        <v>460</v>
       </c>
       <c r="L334">
         <f t="shared" si="41"/>
@@ -16664,7 +16686,7 @@
       </c>
       <c r="K335">
         <f t="shared" si="40"/>
-        <v>-520</v>
+        <v>520</v>
       </c>
       <c r="L335">
         <f t="shared" si="41"/>
@@ -16705,11 +16727,11 @@
       </c>
       <c r="J336">
         <f t="shared" si="39"/>
-        <v>-40</v>
+        <v>40</v>
       </c>
       <c r="K336">
         <f t="shared" si="40"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L336">
         <f t="shared" si="41"/>
@@ -16750,11 +16772,11 @@
       </c>
       <c r="J337">
         <f t="shared" si="39"/>
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K337">
         <f t="shared" si="40"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L337">
         <f t="shared" si="41"/>
@@ -16795,11 +16817,11 @@
       </c>
       <c r="J338">
         <f t="shared" si="39"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="K338">
         <f t="shared" si="40"/>
-        <v>-420</v>
+        <v>420</v>
       </c>
       <c r="L338">
         <f t="shared" si="41"/>
@@ -16841,7 +16863,7 @@
       </c>
       <c r="K339">
         <f t="shared" si="40"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="L339">
         <f t="shared" si="41"/>
@@ -16882,11 +16904,11 @@
       </c>
       <c r="J340">
         <f t="shared" si="39"/>
-        <v>880</v>
+        <v>-880</v>
       </c>
       <c r="K340">
         <f t="shared" si="40"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L340">
         <f t="shared" si="41"/>
@@ -16928,7 +16950,7 @@
       </c>
       <c r="K341">
         <f t="shared" si="40"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L341">
         <f t="shared" si="41"/>
@@ -16970,7 +16992,7 @@
       </c>
       <c r="K342">
         <f t="shared" si="40"/>
-        <v>-600</v>
+        <v>600</v>
       </c>
       <c r="L342">
         <f t="shared" si="41"/>
@@ -17011,11 +17033,11 @@
       </c>
       <c r="J343">
         <f t="shared" si="39"/>
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="K343">
         <f t="shared" si="40"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L343">
         <f t="shared" si="41"/>
@@ -17056,11 +17078,11 @@
       </c>
       <c r="J344">
         <f t="shared" si="39"/>
-        <v>260</v>
+        <v>-260</v>
       </c>
       <c r="K344">
         <f t="shared" si="40"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L344">
         <f t="shared" si="41"/>
@@ -17101,11 +17123,11 @@
       </c>
       <c r="J345">
         <f t="shared" si="39"/>
-        <v>220</v>
+        <v>-220</v>
       </c>
       <c r="K345">
         <f t="shared" si="40"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L345">
         <f t="shared" si="41"/>
@@ -17146,11 +17168,11 @@
       </c>
       <c r="J346">
         <f t="shared" si="39"/>
-        <v>140</v>
+        <v>-140</v>
       </c>
       <c r="K346">
         <f t="shared" si="40"/>
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="L346">
         <f t="shared" si="41"/>
@@ -17191,11 +17213,11 @@
       </c>
       <c r="J347">
         <f t="shared" si="39"/>
-        <v>440</v>
+        <v>-440</v>
       </c>
       <c r="K347">
         <f t="shared" si="40"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L347">
         <f t="shared" si="41"/>
@@ -17236,11 +17258,11 @@
       </c>
       <c r="J348">
         <f t="shared" si="39"/>
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="K348">
         <f t="shared" si="40"/>
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="L348">
         <f t="shared" si="41"/>
@@ -17281,11 +17303,11 @@
       </c>
       <c r="J349">
         <f t="shared" si="39"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="K349">
         <f t="shared" si="40"/>
-        <v>-420</v>
+        <v>420</v>
       </c>
       <c r="L349">
         <f t="shared" si="41"/>
@@ -17326,11 +17348,11 @@
       </c>
       <c r="J350">
         <f t="shared" si="39"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="K350">
         <f t="shared" si="40"/>
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="L350">
         <f t="shared" si="41"/>
@@ -17371,11 +17393,11 @@
       </c>
       <c r="J351">
         <f t="shared" si="39"/>
-        <v>-80</v>
+        <v>80</v>
       </c>
       <c r="K351">
         <f t="shared" si="40"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L351">
         <f t="shared" si="41"/>
@@ -17455,11 +17477,11 @@
       </c>
       <c r="J353">
         <f t="shared" si="39"/>
-        <v>360</v>
+        <v>-360</v>
       </c>
       <c r="K353">
         <f t="shared" si="40"/>
-        <v>-500</v>
+        <v>500</v>
       </c>
       <c r="L353">
         <f t="shared" si="41"/>
@@ -17500,11 +17522,11 @@
       </c>
       <c r="J354">
         <f t="shared" si="39"/>
-        <v>280</v>
+        <v>-280</v>
       </c>
       <c r="K354">
         <f t="shared" si="40"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L354">
         <f t="shared" si="41"/>
@@ -17545,11 +17567,11 @@
       </c>
       <c r="J355">
         <f t="shared" si="39"/>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="K355">
         <f t="shared" si="40"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L355">
         <f t="shared" si="41"/>
@@ -17590,11 +17612,11 @@
       </c>
       <c r="J356">
         <f t="shared" si="39"/>
-        <v>520</v>
+        <v>-520</v>
       </c>
       <c r="K356">
         <f t="shared" si="40"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L356">
         <f t="shared" si="41"/>
@@ -17635,11 +17657,11 @@
       </c>
       <c r="J357">
         <f t="shared" si="39"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="K357">
         <f t="shared" si="40"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L357">
         <f t="shared" si="41"/>
@@ -17680,11 +17702,11 @@
       </c>
       <c r="J358">
         <f t="shared" si="39"/>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="K358">
         <f t="shared" si="40"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="L358">
         <f t="shared" si="41"/>
@@ -17725,11 +17747,11 @@
       </c>
       <c r="J359">
         <f t="shared" si="39"/>
-        <v>260</v>
+        <v>-260</v>
       </c>
       <c r="K359">
         <f t="shared" si="40"/>
-        <v>-160</v>
+        <v>160</v>
       </c>
       <c r="L359">
         <f t="shared" si="41"/>
@@ -17770,11 +17792,11 @@
       </c>
       <c r="J360">
         <f t="shared" si="39"/>
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="K360">
         <f t="shared" si="40"/>
-        <v>-400</v>
+        <v>400</v>
       </c>
       <c r="L360">
         <f t="shared" si="41"/>
@@ -17815,11 +17837,11 @@
       </c>
       <c r="J361">
         <f t="shared" si="39"/>
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="K361">
         <f t="shared" si="40"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L361">
         <f t="shared" si="41"/>
@@ -17860,11 +17882,11 @@
       </c>
       <c r="J362">
         <f t="shared" si="39"/>
-        <v>640</v>
+        <v>-640</v>
       </c>
       <c r="K362">
         <f t="shared" si="40"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L362">
         <f t="shared" si="41"/>
@@ -17906,7 +17928,7 @@
       </c>
       <c r="K363">
         <f t="shared" si="40"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L363">
         <f t="shared" si="41"/>
@@ -17947,11 +17969,11 @@
       </c>
       <c r="J364">
         <f t="shared" si="39"/>
-        <v>220</v>
+        <v>-220</v>
       </c>
       <c r="K364">
         <f t="shared" si="40"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L364">
         <f t="shared" si="41"/>
@@ -17992,11 +18014,11 @@
       </c>
       <c r="J365">
         <f t="shared" si="39"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="K365">
         <f t="shared" si="40"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L365">
         <f t="shared" si="41"/>
@@ -18037,11 +18059,11 @@
       </c>
       <c r="J366">
         <f t="shared" si="39"/>
-        <v>40</v>
+        <v>-40</v>
       </c>
       <c r="K366">
         <f t="shared" si="40"/>
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="L366">
         <f t="shared" si="41"/>
@@ -18082,11 +18104,11 @@
       </c>
       <c r="J367">
         <f t="shared" si="39"/>
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="K367">
         <f t="shared" si="40"/>
-        <v>-480</v>
+        <v>480</v>
       </c>
       <c r="L367">
         <f t="shared" si="41"/>
@@ -18127,11 +18149,11 @@
       </c>
       <c r="J368">
         <f t="shared" si="39"/>
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="K368">
         <f t="shared" si="40"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L368">
         <f t="shared" si="41"/>
@@ -18172,11 +18194,11 @@
       </c>
       <c r="J369">
         <f t="shared" si="39"/>
-        <v>260</v>
+        <v>-260</v>
       </c>
       <c r="K369">
         <f t="shared" si="40"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="L369">
         <f t="shared" si="41"/>
@@ -18217,11 +18239,11 @@
       </c>
       <c r="J370">
         <f t="shared" si="39"/>
-        <v>900</v>
+        <v>-900</v>
       </c>
       <c r="K370">
         <f t="shared" si="40"/>
-        <v>-220</v>
+        <v>220</v>
       </c>
       <c r="L370">
         <f t="shared" si="41"/>
@@ -18262,11 +18284,11 @@
       </c>
       <c r="J371">
         <f t="shared" si="39"/>
-        <v>80</v>
+        <v>-80</v>
       </c>
       <c r="K371">
         <f t="shared" si="40"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L371">
         <f t="shared" si="41"/>
@@ -18307,11 +18329,11 @@
       </c>
       <c r="J372">
         <f t="shared" si="39"/>
-        <v>480</v>
+        <v>-480</v>
       </c>
       <c r="K372">
         <f t="shared" si="40"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L372">
         <f t="shared" si="41"/>
@@ -18352,11 +18374,11 @@
       </c>
       <c r="J373">
         <f t="shared" si="39"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="K373">
         <f t="shared" si="40"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="L373">
         <f t="shared" si="41"/>
@@ -18397,11 +18419,11 @@
       </c>
       <c r="J374">
         <f t="shared" si="39"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="K374">
         <f t="shared" si="40"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L374">
         <f t="shared" si="41"/>
@@ -18442,11 +18464,11 @@
       </c>
       <c r="J375">
         <f t="shared" si="39"/>
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="K375">
         <f t="shared" si="40"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L375">
         <f t="shared" si="41"/>
@@ -18487,11 +18509,11 @@
       </c>
       <c r="J376">
         <f t="shared" si="39"/>
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="K376">
         <f t="shared" si="40"/>
-        <v>-320</v>
+        <v>320</v>
       </c>
       <c r="L376">
         <f t="shared" si="41"/>
@@ -18532,11 +18554,11 @@
       </c>
       <c r="J377">
         <f t="shared" si="39"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="K377">
         <f t="shared" si="40"/>
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="L377">
         <f t="shared" si="41"/>
@@ -18577,11 +18599,11 @@
       </c>
       <c r="J378">
         <f t="shared" si="39"/>
-        <v>280</v>
+        <v>-280</v>
       </c>
       <c r="K378">
         <f t="shared" si="40"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="L378">
         <f t="shared" si="41"/>
@@ -18622,11 +18644,11 @@
       </c>
       <c r="J379">
         <f t="shared" si="39"/>
-        <v>140</v>
+        <v>-140</v>
       </c>
       <c r="K379">
         <f t="shared" si="40"/>
-        <v>-380</v>
+        <v>380</v>
       </c>
       <c r="L379">
         <f t="shared" si="41"/>
@@ -18667,11 +18689,11 @@
       </c>
       <c r="J380">
         <f t="shared" si="39"/>
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="K380">
         <f t="shared" si="40"/>
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L380">
         <f t="shared" si="41"/>
@@ -18712,11 +18734,11 @@
       </c>
       <c r="J381">
         <f t="shared" si="39"/>
-        <v>220</v>
+        <v>-220</v>
       </c>
       <c r="K381">
         <f t="shared" si="40"/>
-        <v>-440</v>
+        <v>440</v>
       </c>
       <c r="L381">
         <f t="shared" si="41"/>
@@ -18757,11 +18779,11 @@
       </c>
       <c r="J382">
         <f t="shared" si="39"/>
-        <v>600</v>
+        <v>-600</v>
       </c>
       <c r="K382">
         <f t="shared" si="40"/>
-        <v>-340</v>
+        <v>340</v>
       </c>
       <c r="L382">
         <f t="shared" si="41"/>
@@ -18802,11 +18824,11 @@
       </c>
       <c r="J383">
         <f t="shared" si="39"/>
-        <v>860</v>
+        <v>-860</v>
       </c>
       <c r="K383">
         <f t="shared" si="40"/>
-        <v>-280</v>
+        <v>280</v>
       </c>
       <c r="L383">
         <f t="shared" si="41"/>
@@ -18847,11 +18869,11 @@
       </c>
       <c r="J384">
         <f t="shared" si="39"/>
-        <v>440</v>
+        <v>-440</v>
       </c>
       <c r="K384">
         <f t="shared" si="40"/>
-        <v>-260</v>
+        <v>260</v>
       </c>
       <c r="L384">
         <f t="shared" si="41"/>
@@ -18892,11 +18914,11 @@
       </c>
       <c r="J385">
         <f t="shared" si="39"/>
-        <v>420</v>
+        <v>-420</v>
       </c>
       <c r="K385">
         <f t="shared" si="40"/>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="L385">
         <f t="shared" si="41"/>
@@ -18938,7 +18960,7 @@
       </c>
       <c r="K386">
         <f t="shared" si="40"/>
-        <v>-520</v>
+        <v>520</v>
       </c>
       <c r="L386">
         <f t="shared" si="41"/>
@@ -18977,16 +18999,16 @@
         <f t="shared" ref="I387:I401" si="45">IF(ISBLANK(E387),"INF",E387)</f>
         <v>480</v>
       </c>
-      <c r="J387">
-        <f t="shared" ref="J387:J401" si="46">F387-G387</f>
-        <v>260</v>
+      <c r="J387" t="e" cm="1">
+        <f t="array" aca="1" ref="J387" ca="1">-K2(F387-G387)</f>
+        <v>#REF!</v>
       </c>
       <c r="K387">
-        <f t="shared" ref="K387:K401" si="47">H387-I387</f>
-        <v>-160</v>
+        <f t="shared" ref="K387:K401" si="46">-(H387-I387)</f>
+        <v>160</v>
       </c>
       <c r="L387">
-        <f t="shared" ref="L387:L401" si="48">I387-G387</f>
+        <f t="shared" ref="L387:L401" si="47">I387-G387</f>
         <v>80</v>
       </c>
     </row>
@@ -19023,15 +19045,15 @@
         <v>580</v>
       </c>
       <c r="J388">
+        <f t="shared" ref="J387:J401" si="48">-(F388-G388)</f>
+        <v>-100</v>
+      </c>
+      <c r="K388">
         <f t="shared" si="46"/>
-        <v>100</v>
-      </c>
-      <c r="K388">
+        <v>260</v>
+      </c>
+      <c r="L388">
         <f t="shared" si="47"/>
-        <v>-260</v>
-      </c>
-      <c r="L388">
-        <f t="shared" si="48"/>
         <v>180</v>
       </c>
     </row>
@@ -19068,15 +19090,15 @@
         <v>400</v>
       </c>
       <c r="J389">
+        <f t="shared" si="48"/>
+        <v>-60</v>
+      </c>
+      <c r="K389">
         <f t="shared" si="46"/>
-        <v>60</v>
-      </c>
-      <c r="K389">
+        <v>300</v>
+      </c>
+      <c r="L389">
         <f t="shared" si="47"/>
-        <v>-300</v>
-      </c>
-      <c r="L389">
-        <f t="shared" si="48"/>
         <v>60</v>
       </c>
     </row>
@@ -19113,15 +19135,15 @@
         <v>420</v>
       </c>
       <c r="J390">
+        <f t="shared" si="48"/>
+        <v>-600</v>
+      </c>
+      <c r="K390">
         <f t="shared" si="46"/>
-        <v>600</v>
-      </c>
-      <c r="K390">
+        <v>400</v>
+      </c>
+      <c r="L390">
         <f t="shared" si="47"/>
-        <v>-400</v>
-      </c>
-      <c r="L390">
-        <f t="shared" si="48"/>
         <v>40</v>
       </c>
     </row>
@@ -19158,15 +19180,15 @@
         <v>360</v>
       </c>
       <c r="J391">
+        <f t="shared" si="48"/>
+        <v>-180</v>
+      </c>
+      <c r="K391">
         <f t="shared" si="46"/>
-        <v>180</v>
-      </c>
-      <c r="K391">
+        <v>160</v>
+      </c>
+      <c r="L391">
         <f t="shared" si="47"/>
-        <v>-160</v>
-      </c>
-      <c r="L391">
-        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -19203,15 +19225,15 @@
         <v>460</v>
       </c>
       <c r="J392">
+        <f t="shared" si="48"/>
+        <v>-280</v>
+      </c>
+      <c r="K392">
         <f t="shared" si="46"/>
-        <v>280</v>
-      </c>
-      <c r="K392">
+        <v>400</v>
+      </c>
+      <c r="L392">
         <f t="shared" si="47"/>
-        <v>-400</v>
-      </c>
-      <c r="L392">
-        <f t="shared" si="48"/>
         <v>340</v>
       </c>
     </row>
@@ -19248,15 +19270,15 @@
         <v>220</v>
       </c>
       <c r="J393">
+        <f t="shared" si="48"/>
+        <v>-340</v>
+      </c>
+      <c r="K393">
         <f t="shared" si="46"/>
-        <v>340</v>
-      </c>
-      <c r="K393">
+        <v>180</v>
+      </c>
+      <c r="L393">
         <f t="shared" si="47"/>
-        <v>-180</v>
-      </c>
-      <c r="L393">
-        <f t="shared" si="48"/>
         <v>-200</v>
       </c>
     </row>
@@ -19293,15 +19315,15 @@
         <v>380</v>
       </c>
       <c r="J394">
+        <f t="shared" si="48"/>
+        <v>-320</v>
+      </c>
+      <c r="K394">
         <f t="shared" si="46"/>
-        <v>320</v>
-      </c>
-      <c r="K394">
+        <v>280</v>
+      </c>
+      <c r="L394">
         <f t="shared" si="47"/>
-        <v>-280</v>
-      </c>
-      <c r="L394">
-        <f t="shared" si="48"/>
         <v>40</v>
       </c>
     </row>
@@ -19338,15 +19360,15 @@
         <v>440</v>
       </c>
       <c r="J395">
+        <f t="shared" si="48"/>
+        <v>-180</v>
+      </c>
+      <c r="K395">
         <f t="shared" si="46"/>
-        <v>180</v>
-      </c>
-      <c r="K395">
+        <v>260</v>
+      </c>
+      <c r="L395">
         <f t="shared" si="47"/>
-        <v>-260</v>
-      </c>
-      <c r="L395">
-        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -19383,15 +19405,15 @@
         <v>300</v>
       </c>
       <c r="J396">
+        <f t="shared" si="48"/>
+        <v>-600</v>
+      </c>
+      <c r="K396">
         <f t="shared" si="46"/>
-        <v>600</v>
-      </c>
-      <c r="K396">
+        <v>180</v>
+      </c>
+      <c r="L396">
         <f t="shared" si="47"/>
-        <v>-180</v>
-      </c>
-      <c r="L396">
-        <f t="shared" si="48"/>
         <v>-80</v>
       </c>
     </row>
@@ -19428,15 +19450,15 @@
         <v>540</v>
       </c>
       <c r="J397">
+        <f t="shared" si="48"/>
+        <v>-120</v>
+      </c>
+      <c r="K397">
         <f t="shared" si="46"/>
-        <v>120</v>
-      </c>
-      <c r="K397">
+        <v>260</v>
+      </c>
+      <c r="L397">
         <f t="shared" si="47"/>
-        <v>-260</v>
-      </c>
-      <c r="L397">
-        <f t="shared" si="48"/>
         <v>280</v>
       </c>
     </row>
@@ -19473,15 +19495,15 @@
         <v>360</v>
       </c>
       <c r="J398">
+        <f t="shared" si="48"/>
+        <v>-800</v>
+      </c>
+      <c r="K398">
         <f t="shared" si="46"/>
-        <v>800</v>
-      </c>
-      <c r="K398">
+        <v>180</v>
+      </c>
+      <c r="L398">
         <f t="shared" si="47"/>
-        <v>-180</v>
-      </c>
-      <c r="L398">
-        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -19518,15 +19540,15 @@
         <v>460</v>
       </c>
       <c r="J399">
+        <f t="shared" si="48"/>
+        <v>-320</v>
+      </c>
+      <c r="K399">
         <f t="shared" si="46"/>
-        <v>320</v>
-      </c>
-      <c r="K399">
+        <v>300</v>
+      </c>
+      <c r="L399">
         <f t="shared" si="47"/>
-        <v>-300</v>
-      </c>
-      <c r="L399">
-        <f t="shared" si="48"/>
         <v>100</v>
       </c>
     </row>
@@ -19563,15 +19585,15 @@
         <v>240</v>
       </c>
       <c r="J400">
+        <f t="shared" si="48"/>
+        <v>-160</v>
+      </c>
+      <c r="K400">
         <f t="shared" si="46"/>
         <v>160</v>
       </c>
-      <c r="K400">
+      <c r="L400">
         <f t="shared" si="47"/>
-        <v>-160</v>
-      </c>
-      <c r="L400">
-        <f t="shared" si="48"/>
         <v>-160</v>
       </c>
     </row>
@@ -19608,15 +19630,15 @@
         <v>300</v>
       </c>
       <c r="J401">
+        <f t="shared" si="48"/>
+        <v>-240</v>
+      </c>
+      <c r="K401">
         <f t="shared" si="46"/>
-        <v>240</v>
-      </c>
-      <c r="K401">
+        <v>280</v>
+      </c>
+      <c r="L401">
         <f t="shared" si="47"/>
-        <v>-280</v>
-      </c>
-      <c r="L401">
-        <f t="shared" si="48"/>
         <v>-140</v>
       </c>
     </row>
